--- a/DataFiles_Excel/Maps/AwardsByLocation/World/World_Discretionary/World_Discretionary_ONC.xlsx
+++ b/DataFiles_Excel/Maps/AwardsByLocation/World/World_Discretionary/World_Discretionary_ONC.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +198,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -380,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -492,6 +511,47 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,29 +600,41 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -919,6 +991,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -927,75 +1000,75 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>18</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>-2961087</v>
       </c>
     </row>
